--- a/spliced/walkingToRunning/2023-03-27_19-47-31/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-31/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2825460433959961</v>
+        <v>8.406875610351562</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.671576976776123</v>
+        <v>-12.23353862762451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.079004168510437</v>
+        <v>5.69203519821167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.406875610351562</v>
+        <v>-6.086453437805176</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.23353862762451</v>
+        <v>-26.34650039672852</v>
       </c>
       <c r="C3" t="n">
-        <v>5.69203519821167</v>
+        <v>-14.22333812713623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6.086453437805176</v>
+        <v>5.984857559204102</v>
       </c>
       <c r="B4" t="n">
-        <v>-26.34650039672852</v>
+        <v>-12.02742099761963</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.22333812713623</v>
+        <v>-10.5483455657959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.984857559204102</v>
+        <v>-9.330942153930664</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.02742099761963</v>
+        <v>-13.30614566802978</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.5483455657959</v>
+        <v>-3.071574211120605</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-9.330942153930664</v>
+        <v>-9.185368537902832</v>
       </c>
       <c r="B6" t="n">
-        <v>-13.30614566802978</v>
+        <v>-8.196459770202637</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.071574211120605</v>
+        <v>-3.727138996124268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-9.185368537902832</v>
+        <v>-11.09085464477539</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.196459770202637</v>
+        <v>-10.81818866729736</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.727138996124268</v>
+        <v>13.48275184631348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-11.09085464477539</v>
+        <v>-5.257553100585938</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.81818866729736</v>
+        <v>-7.122329711914063</v>
       </c>
       <c r="C8" t="n">
-        <v>13.48275184631348</v>
+        <v>-5.412375450134277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.257553100585938</v>
+        <v>5.622566699981689</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.122329711914063</v>
+        <v>-31.63553428649902</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.412375450134277</v>
+        <v>26.30605506896973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.622566699981689</v>
+        <v>-31.68562698364257</v>
       </c>
       <c r="B10" t="n">
-        <v>-31.63553428649902</v>
+        <v>8.553699493408203</v>
       </c>
       <c r="C10" t="n">
-        <v>26.30605506896973</v>
+        <v>-25.76754570007324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-31.68562698364257</v>
+        <v>-25.48157119750977</v>
       </c>
       <c r="B11" t="n">
-        <v>8.553699493408203</v>
+        <v>-8.927703857421875</v>
       </c>
       <c r="C11" t="n">
-        <v>-25.76754570007324</v>
+        <v>-22.08453178405762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-25.48157119750977</v>
+        <v>3.429775714874268</v>
       </c>
       <c r="B12" t="n">
-        <v>-8.927703857421875</v>
+        <v>-31.35194206237793</v>
       </c>
       <c r="C12" t="n">
-        <v>-22.08453178405762</v>
+        <v>6.574334621429443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.429775714874268</v>
+        <v>-11.71933746337891</v>
       </c>
       <c r="B13" t="n">
-        <v>-31.35194206237793</v>
+        <v>-2.056103706359864</v>
       </c>
       <c r="C13" t="n">
-        <v>6.574334621429443</v>
+        <v>0.026987075805664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-11.71933746337891</v>
+        <v>-4.002825736999512</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.056103706359864</v>
+        <v>1.024898052215576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.026987075805664</v>
+        <v>5.117716789245605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.002825736999512</v>
+        <v>-2.464081764221191</v>
       </c>
       <c r="B15" t="n">
-        <v>1.024898052215576</v>
+        <v>-30.21155166625977</v>
       </c>
       <c r="C15" t="n">
-        <v>5.117716789245605</v>
+        <v>11.36835384368896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.464081764221191</v>
+        <v>18.32395362854004</v>
       </c>
       <c r="B16" t="n">
-        <v>-30.21155166625977</v>
+        <v>2.226233005523682</v>
       </c>
       <c r="C16" t="n">
-        <v>11.36835384368896</v>
+        <v>-8.703231811523438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18.32395362854004</v>
+        <v>-23.21679878234864</v>
       </c>
       <c r="B17" t="n">
-        <v>2.226233005523682</v>
+        <v>-14.6329288482666</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.703231811523438</v>
+        <v>-21.63663291931152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.21679878234864</v>
+        <v>-1.97741436958313</v>
       </c>
       <c r="B18" t="n">
-        <v>-14.6329288482666</v>
+        <v>-62.5509033203125</v>
       </c>
       <c r="C18" t="n">
-        <v>-21.63663291931152</v>
+        <v>-12.70803451538086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.97741436958313</v>
+        <v>-14.78749465942383</v>
       </c>
       <c r="B19" t="n">
-        <v>-62.5509033203125</v>
+        <v>9.399082183837891</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.70803451538086</v>
+        <v>0.7060952186584473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-14.78749465942383</v>
+        <v>-45.69917297363281</v>
       </c>
       <c r="B20" t="n">
-        <v>9.399082183837891</v>
+        <v>-85.84348297119141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7060952186584473</v>
+        <v>16.09267616271973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-45.69917297363281</v>
+        <v>21.77816009521484</v>
       </c>
       <c r="B21" t="n">
-        <v>-85.84348297119141</v>
+        <v>1.36038064956665</v>
       </c>
       <c r="C21" t="n">
-        <v>16.09267616271973</v>
+        <v>-24.16020965576172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-22.23860740661621</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.703294038772583</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.579345703125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-28.10436058044434</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-46.36766815185547</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13.63930892944336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2610459327697754</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.697724103927612</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.434926986694336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.421352386474609</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.679108619689941</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.642993927001953</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12.62557125091553</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-29.58051681518555</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.874727249145508</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17.53614234924316</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.259291648864746</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.211094856262207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-11.21247386932373</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-9.254820823669434</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-18.96420669555664</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2897729873657226</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-15.05545616149902</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.06244659423828</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-14.59784603118896</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.85461044311523</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.184048175811768</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-74.86586761474609</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-84.31977081298828</v>
+      </c>
+      <c r="C31" t="n">
+        <v>76.46285247802734</v>
       </c>
     </row>
   </sheetData>
